--- a/resource/Dataset.xlsx
+++ b/resource/Dataset.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5662B1-730A-4CE0-A0B4-F44C54553BE9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8CF81C-84E1-4EA6-ACA1-B43A155F791A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data behind Table 2.1 WHR 2017" sheetId="11" r:id="rId1"/>
@@ -568,7 +568,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -580,6 +580,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -949,11 +950,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.08203125" style="1"/>
+    <col min="1" max="14" width="9.109375" style="1"/>
+    <col min="15" max="15" width="17.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="43.21875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
